--- a/ConfigurationFiles/1-FA_Whitelist_cER_v2.xlsx
+++ b/ConfigurationFiles/1-FA_Whitelist_cER_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="78">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2108,9 +2108,6 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
-      <c r="H68" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
@@ -2119,18 +2116,12 @@
       <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="H69" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s">
         <v>18</v>
       </c>
     </row>
